--- a/slideshow.xlsx
+++ b/slideshow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="13050"/>
+    <workbookView windowWidth="9015" windowHeight="6825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SlideShow</t>
   </si>
@@ -52,6 +52,45 @@
   </si>
   <si>
     <t>ユーザーから終了指示(ESCキー)されたら次の画像を表示することなく終了する。</t>
+  </si>
+  <si>
+    <t>image_1.jpg</t>
+  </si>
+  <si>
+    <t>a/</t>
+  </si>
+  <si>
+    <t>aa/</t>
+  </si>
+  <si>
+    <t>001.jpg</t>
+  </si>
+  <si>
+    <t>001.png</t>
+  </si>
+  <si>
+    <t>002.png</t>
+  </si>
+  <si>
+    <t>apple-logo.xlsx</t>
+  </si>
+  <si>
+    <t>非アスキー文字.zip</t>
+  </si>
+  <si>
+    <t>grid-shading-puzzle.xls</t>
+  </si>
+  <si>
+    <t>megashiki.jpg</t>
+  </si>
+  <si>
+    <t>ec5e678f.jpg</t>
+  </si>
+  <si>
+    <t>image_2.jpg</t>
+  </si>
+  <si>
+    <t>image_3.jpg</t>
   </si>
 </sst>
 </file>
@@ -60,11 +99,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,23 +118,121 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,122 +248,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,74 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,161 +494,226 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -702,12 +731,12 @@
     <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
     <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
     <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
     <cellStyle name="良い" xfId="13" builtinId="26"/>
     <cellStyle name="警告文" xfId="14" builtinId="11"/>
     <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
@@ -746,6 +775,11 @@
     <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1030,16 +1064,15 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1049,12 +1082,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1069,7 +1102,7 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1079,7 +1112,7 @@
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1116,16 +1149,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="16384" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1133,7 +1247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/slideshow.xlsx
+++ b/slideshow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9015" windowHeight="6825" activeTab="1"/>
+    <workbookView windowHeight="17870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>SlideShow</t>
   </si>
@@ -51,7 +51,49 @@
     <t>指定された画像をすべて表示し終えたら、-loopオプションに従い、終了するか、最初の画像から再度繰り返すかする。</t>
   </si>
   <si>
-    <t>ユーザーから終了指示(ESCキー)されたら次の画像を表示することなく終了する。</t>
+    <t>BSキー</t>
+  </si>
+  <si>
+    <t>キー割り当てはSusieに倣った。</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
+    <t>タイマーリセット</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>進む</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>プログラム終了</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>一時停止</t>
+  </si>
+  <si>
+    <t>タイマー停止</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>一時停止解除</t>
+  </si>
+  <si>
+    <t>タイマー再開</t>
   </si>
   <si>
     <t>image_1.jpg</t>
@@ -98,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,6 +160,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -126,8 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,9 +205,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,13 +234,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -173,36 +252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,28 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -248,15 +276,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +504,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,45 +538,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -530,15 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +571,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,145 +612,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,13 +1112,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1136,9 +1178,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="2:6">
+      <c r="B15" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1153,13 +1266,13 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="16384" width="4.625" customWidth="1"/>
+    <col min="3" max="16384" width="4.62727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1167,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1175,52 +1288,52 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1228,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1236,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1368,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/slideshow.xlsx
+++ b/slideshow.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17870"/>
+    <workbookView windowHeight="17870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Testディレクトリ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>SlideShow</t>
   </si>
@@ -133,6 +133,93 @@
   </si>
   <si>
     <t>image_3.jpg</t>
+  </si>
+  <si>
+    <t>Test/</t>
+  </si>
+  <si>
+    <t>akirabike.zip</t>
+  </si>
+  <si>
+    <t>top_view.jpg</t>
+  </si>
+  <si>
+    <t>z/</t>
+  </si>
+  <si>
+    <t>left_view.jpg</t>
+  </si>
+  <si>
+    <t>front_view.jpg</t>
+  </si>
+  <si>
+    <t>image_in_zip_0.jpg</t>
+  </si>
+  <si>
+    <t>image_in_zip_1.jpg</t>
+  </si>
+  <si>
+    <t>b/</t>
+  </si>
+  <si>
+    <t>apple__logo.xlsx</t>
+  </si>
+  <si>
+    <t>image_5.jpg</t>
+  </si>
+  <si>
+    <t>image_4.jpg</t>
+  </si>
+  <si>
+    <t>a.png</t>
+  </si>
+  <si>
+    <t>image_0.jpg</t>
+  </si>
+  <si>
+    <t>コマンドライン引数で、Testディレクトリを渡した場合。</t>
+  </si>
+  <si>
+    <t>[0] Directory</t>
+  </si>
+  <si>
+    <t>LoopableImageFileSource</t>
+  </si>
+  <si>
+    <t>トップレベルのみ</t>
+  </si>
+  <si>
+    <t>[0] ZipFile</t>
+  </si>
+  <si>
+    <t>[0] ImageFileInZipFile</t>
+  </si>
+  <si>
+    <t>[1] ImageFileInZipFile</t>
+  </si>
+  <si>
+    <t>[2] ImageFileInZipFile</t>
+  </si>
+  <si>
+    <t>[1] ZipFile</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>[1] Directory</t>
+  </si>
+  <si>
+    <t>[0] ImageFile</t>
+  </si>
+  <si>
+    <t>[1] ImageFile</t>
+  </si>
+  <si>
+    <t>[2] ImageFile</t>
+  </si>
+  <si>
+    <t>[3] ImageFile</t>
   </si>
 </sst>
 </file>
@@ -140,12 +227,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,10 +241,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="メイリオ"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -168,7 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +283,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,9 +326,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,98 +391,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -313,12 +406,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,49 +556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,125 +586,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,17 +695,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,26 +724,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,16 +747,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,7 +785,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,7 +794,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,138 +803,168 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,143 +1317,143 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1267,88 +1470,89 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="4.62727272727273" defaultRowHeight="17.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="16384" width="4.62727272727273" customWidth="1"/>
+    <col min="1" max="2" width="4.62727272727273" style="1"/>
+    <col min="3" max="16384" width="4.62727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="5:5">
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" t="s">
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="6:6">
-      <c r="F10" t="s">
+      <c r="F10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1362,14 +1566,420 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6">
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="K31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="4"/>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="L32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="4"/>
+      <c r="E33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="M33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="4"/>
+      <c r="G35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="N35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="4"/>
+      <c r="G37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="N37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="N38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="4"/>
+      <c r="E39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="M39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="4"/>
+      <c r="F40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="N40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="N41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="4"/>
+      <c r="F42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="N42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="4"/>
+      <c r="C43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="K43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="4"/>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="L44" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="4"/>
+      <c r="E45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="M45" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="4"/>
+      <c r="F46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="N46" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="4"/>
+      <c r="F47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="N47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="4"/>
+      <c r="F48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="N48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="4"/>
+      <c r="F49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="N49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="4"/>
+      <c r="E50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="M50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="4"/>
+      <c r="D51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="L51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="4"/>
+      <c r="D52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="L52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="4"/>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="L53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="4"/>
+      <c r="C54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="K54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="9"/>
+      <c r="K55" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/slideshow.xlsx
+++ b/slideshow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>SlideShow</t>
   </si>
@@ -220,6 +220,21 @@
   </si>
   <si>
     <t>[3] ImageFile</t>
+  </si>
+  <si>
+    <t>DirectoryImageSourceSeries</t>
+  </si>
+  <si>
+    <t>readonly string _DirectoryPath;</t>
+  </si>
+  <si>
+    <t>List&lt;DirectoryImageSourceSeries&gt; _SubDirectories;</t>
+  </si>
+  <si>
+    <t>List&lt;ZipFileImageSourceSeries&gt; _ZipFiles;</t>
+  </si>
+  <si>
+    <t>List&lt;string&gt; _ImageFileNames;</t>
   </si>
 </sst>
 </file>
@@ -227,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -251,41 +266,6 @@
       <color theme="1"/>
       <name val="メイリオ"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -297,14 +277,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,19 +329,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +367,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -350,19 +390,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,28 +405,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -406,187 +421,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,21 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -707,8 +707,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,16 +743,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -746,8 +761,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,16 +778,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -785,149 +800,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,9 +971,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1323,137 +1335,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="11"/>
+    <col min="1" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1483,7 +1495,7 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1491,52 +1503,52 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="5:5">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="6:6">
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1544,7 +1556,7 @@
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1552,7 +1564,7 @@
       <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1566,10 +1578,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1979,6 +1991,31 @@
         <v>67</v>
       </c>
     </row>
+    <row r="60" spans="11:11">
+      <c r="K60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="12:12">
+      <c r="L61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="12:12">
+      <c r="L62" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="12:12">
+      <c r="L63" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="12:12">
+      <c r="L64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/slideshow.xlsx
+++ b/slideshow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>SlideShow</t>
   </si>
@@ -180,25 +180,43 @@
     <t>コマンドライン引数で、Testディレクトリを渡した場合。</t>
   </si>
   <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>List&lt;ImageSource&gt;</t>
+  </si>
+  <si>
     <t>[0] Directory</t>
   </si>
   <si>
-    <t>LoopableImageFileSource</t>
-  </si>
-  <si>
-    <t>トップレベルのみ</t>
+    <t>↓</t>
   </si>
   <si>
     <t>[0] ZipFile</t>
   </si>
   <si>
+    <t>return createImageSource(entry[0])</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
     <t>[0] ImageFileInZipFile</t>
   </si>
   <si>
+    <t>return createImageSource(entry[1])</t>
+  </si>
+  <si>
     <t>[1] ImageFileInZipFile</t>
   </si>
   <si>
+    <t>return createImageSource(entry[2])</t>
+  </si>
+  <si>
     <t>[2] ImageFileInZipFile</t>
+  </si>
+  <si>
+    <t>return null</t>
   </si>
   <si>
     <t>[1] ZipFile</t>
@@ -243,9 +261,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -268,18 +286,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,22 +317,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +368,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -358,9 +383,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,35 +423,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -421,187 +439,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,15 +722,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -767,17 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -792,6 +790,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,145 +818,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,15 +1596,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:AL64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+      <selection activeCell="AL50" sqref="AL50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="18" width="9" style="1"/>
+    <col min="19" max="37" width="3" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1719,12 +1739,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:38">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="AL28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
@@ -1735,58 +1758,103 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="2:23">
+      <c r="J30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38">
       <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="8"/>
       <c r="K31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W31" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="AL31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38">
       <c r="B32" s="4"/>
       <c r="D32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="8"/>
       <c r="L32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
+        <v>56</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38">
       <c r="B33" s="4"/>
       <c r="E33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I33" s="8"/>
       <c r="M33" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>58</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28">
       <c r="B34" s="4"/>
       <c r="F34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="W34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38">
       <c r="B35" s="4"/>
       <c r="G35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I35" s="8"/>
       <c r="N35" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -1796,34 +1864,115 @@
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:38">
       <c r="B37" s="4"/>
       <c r="G37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="8"/>
       <c r="N37" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14">
+        <v>63</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>1</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38">
       <c r="B38" s="4"/>
       <c r="F38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I38" s="8"/>
       <c r="N38" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
+        <v>65</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>2</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38">
       <c r="B39" s="4"/>
       <c r="E39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I39" s="8"/>
       <c r="M39" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="AL39" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:14">
@@ -1833,77 +1982,242 @@
       </c>
       <c r="I40" s="8"/>
       <c r="N40" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38">
       <c r="B41" s="4"/>
       <c r="F41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I41" s="8"/>
       <c r="N41" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14">
+        <v>61</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38">
       <c r="B42" s="4"/>
       <c r="F42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I42" s="8"/>
       <c r="N42" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
+        <v>63</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38">
       <c r="B43" s="4"/>
       <c r="C43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I43" s="8"/>
       <c r="K43" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12">
+        <v>69</v>
+      </c>
+      <c r="AL43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38">
       <c r="B44" s="4"/>
       <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I44" s="8"/>
       <c r="L44" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
+        <v>56</v>
+      </c>
+      <c r="AL44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38">
       <c r="B45" s="4"/>
       <c r="E45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I45" s="8"/>
       <c r="M45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14">
+        <v>56</v>
+      </c>
+      <c r="AL45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38">
       <c r="B46" s="4"/>
       <c r="F46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="8"/>
       <c r="N46" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14">
+        <v>70</v>
+      </c>
+      <c r="S46" s="1">
+        <v>1</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:38">
       <c r="B47" s="4"/>
       <c r="F47" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I47" s="8"/>
       <c r="N47" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:14">
@@ -1913,70 +2227,212 @@
       </c>
       <c r="I48" s="8"/>
       <c r="N48" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:38">
       <c r="B49" s="4"/>
       <c r="F49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I49" s="8"/>
       <c r="N49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S49" s="1">
+        <v>1</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>2</v>
+      </c>
+      <c r="X49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="1"/>
+      <c r="AC49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:38">
       <c r="B50" s="4"/>
       <c r="E50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I50" s="8"/>
       <c r="M50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
+        <v>71</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="X50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31">
       <c r="B51" s="4"/>
       <c r="D51" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="8"/>
       <c r="L51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
+        <v>71</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1</v>
+      </c>
+      <c r="X51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30">
       <c r="B52" s="4"/>
       <c r="D52" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I52" s="8"/>
       <c r="L52" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
+        <v>72</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1</v>
+      </c>
+      <c r="T52" s="1">
+        <v>2</v>
+      </c>
+      <c r="X52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30">
       <c r="B53" s="4"/>
       <c r="D53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I53" s="8"/>
       <c r="L53" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11">
+        <v>73</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1</v>
+      </c>
+      <c r="T53" s="1">
+        <v>3</v>
+      </c>
+      <c r="X53" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30">
       <c r="B54" s="4"/>
       <c r="C54" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I54" s="8"/>
       <c r="K54" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
+        <v>72</v>
+      </c>
+      <c r="S54" s="1">
+        <v>2</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30">
       <c r="B55" s="5"/>
       <c r="C55" s="6" t="s">
         <v>52</v>
@@ -1988,32 +2444,56 @@
       <c r="H55" s="6"/>
       <c r="I55" s="9"/>
       <c r="K55" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="S55" s="1">
+        <v>3</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="11:11">
       <c r="K60" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="12:12">
       <c r="L61" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="12:12">
       <c r="L62" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="12:12">
       <c r="L63" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="12:12">
       <c r="L64" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
